--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639898.4070212572</v>
+        <v>637418.5013174546</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>257.6699583395636</v>
+        <v>385.219981083777</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.639939707654406</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.00662220909632</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>129.138085135642</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>315.9968882787534</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>56.56785773764403</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>1.64230657388232</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>140.6035839880962</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.0977753814021</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>253.5718841157919</v>
+        <v>139.3948594558963</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
-        <v>331.6388439349683</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38.03682829123387</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.74133133758716</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986326</v>
+        <v>123.9815576456734</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1686991936146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520993</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.9114582540257</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>120.4832454124057</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.0850116794024</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181942</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699766</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>188.9440068174794</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>113.6427030833194</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1116.785682706062</v>
+        <v>1179.250440354288</v>
       </c>
       <c r="C2" t="n">
-        <v>747.8231657656506</v>
+        <v>810.2879234138759</v>
       </c>
       <c r="D2" t="n">
-        <v>389.5574671589001</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="E2" t="n">
-        <v>389.5574671589001</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4361,19 +4361,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2560.682823644949</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2229.619936301378</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1876.851281031264</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1503.385522770184</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y2" t="n">
-        <v>1503.385522770184</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="3">
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541375</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>829.9210616433572</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>609.1284824998271</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614817</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.012981614817</v>
+        <v>828.1105664881546</v>
       </c>
       <c r="F5" t="n">
-        <v>612.0270768252092</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>196.9546266702056</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1780.324840605976</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U7" t="n">
-        <v>1780.324840605976</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1525.640352400089</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1236.223182363129</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>1008.233631465111</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.191441142816</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142816</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>1257.708832206268</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555042</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614631</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.19673200788</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
         <v>1204.208000760437</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608047</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251932</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018649</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750192</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469741</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.39853312617</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856056</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594976</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619164</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779263</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>240.4596049779263</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>731.1919378216775</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.210292073805</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1945.306255473141</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>1945.306255473141</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.0885253246406</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>576.1523423967337</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>426.035702984398</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>278.1226094020049</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>131.2326619040945</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1919.620778439275</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1664.936290233388</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1375.519120196428</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1147.52956929841</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.7369901548803</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121596</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121596</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
         <v>240.7066105458822</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.7540666811333</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,16 +6230,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="D31" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121596</v>
       </c>
       <c r="E31" t="n">
-        <v>282.8695714929399</v>
+        <v>197.0043242297664</v>
       </c>
       <c r="F31" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1242.848833509951</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1014.859282611934</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>794.0667034684034</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.747479770888</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7102,43 +7102,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679636</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744658</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011278</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7403,58 +7403,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
         <v>716.6687843969308</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.1197517384227</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.65606465793439</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>249.4053104208076</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
-        <v>50.29152613729349</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>127.505224585933</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.5054897610407</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582707</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529544</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>43.2652634529546</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228907</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>71.6731950980691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012319</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>40.32043864788585</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345295461</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>39.5245049809784</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>97.57899151911155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>956751.1038526024</v>
+        <v>956751.1038526023</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1012498.874022723</v>
+        <v>1012498.874022724</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1018082.409087693</v>
+        <v>1018082.409087692</v>
       </c>
     </row>
     <row r="12">
@@ -26320,13 +26320,13 @@
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="G2" t="n">
         <v>403573.2998450031</v>
-      </c>
-      <c r="G2" t="n">
-        <v>403573.2998450029</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
@@ -26335,25 +26335,25 @@
         <v>403573.2998450031</v>
       </c>
       <c r="J2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="K2" t="n">
+        <v>403573.2998450028</v>
+      </c>
+      <c r="L2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="M2" t="n">
         <v>403573.2998450032</v>
       </c>
-      <c r="K2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="L2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="M2" t="n">
-        <v>403573.2998450031</v>
-      </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>203438.7416121053</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189851</v>
+        <v>313680.0588189859</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504171</v>
+        <v>11452.26311504109</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605433</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832908</v>
+        <v>81924.27863832936</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704897</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97925.04507884866</v>
+        <v>97925.04507884858</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.1790931203</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312026</v>
       </c>
       <c r="E4" t="n">
         <v>9940.611700543546</v>
@@ -26436,7 +26436,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768899</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
@@ -26454,7 +26454,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768958</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-930138.9798442887</v>
+        <v>-930314.2061626978</v>
       </c>
       <c r="C6" t="n">
-        <v>10014.02366552228</v>
+        <v>10014.02366552275</v>
       </c>
       <c r="D6" t="n">
-        <v>213452.7652776282</v>
+        <v>213452.7652776279</v>
       </c>
       <c r="E6" t="n">
-        <v>-22422.9132143516</v>
+        <v>-22468.81820991805</v>
       </c>
       <c r="F6" t="n">
-        <v>281051.3625842853</v>
+        <v>281016.6246588504</v>
       </c>
       <c r="G6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738914</v>
       </c>
       <c r="H6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738913</v>
       </c>
       <c r="I6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738912</v>
       </c>
       <c r="J6" t="n">
-        <v>124898.4478893446</v>
+        <v>124863.709963909</v>
       </c>
       <c r="K6" t="n">
-        <v>243393.5329932726</v>
+        <v>243358.7950678368</v>
       </c>
       <c r="L6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738912</v>
       </c>
       <c r="M6" t="n">
-        <v>210579.347060998</v>
+        <v>210544.6091355621</v>
       </c>
       <c r="N6" t="n">
-        <v>289426.6083436221</v>
+        <v>289391.8704181868</v>
       </c>
       <c r="O6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738913</v>
       </c>
       <c r="P6" t="n">
-        <v>292503.625699327</v>
+        <v>292468.8877738914</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757585</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230871</v>
+        <v>268.2643481230878</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237134</v>
+        <v>328.7438349237145</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>200.8106183338391</v>
       </c>
       <c r="F2" t="n">
-        <v>149.2060874021478</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.82535797284098</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>158.3406588394358</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>165.4696792516785</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.24105037730021</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>162.9810915385252</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>250.4953367499457</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>224.6693077829113</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.1431933360109</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>32.95111422079907</v>
+        <v>147.1281388806947</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-2.600178789511234e-12</v>
       </c>
     </row>
     <row r="20">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.13237155043</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>514.689660254585</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814921</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34778,7 +34778,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>271.5293621272319</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>380.7152528402547</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.9999866016179</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>342.516458763847</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37470,7 +37470,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
